--- a/natmiOut/OldD7/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Fzd4</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.649091183536306</v>
+        <v>0.7183383333333334</v>
       </c>
       <c r="H2">
-        <v>0.649091183536306</v>
+        <v>2.155015</v>
       </c>
       <c r="I2">
-        <v>0.1106053989433322</v>
+        <v>0.1157638296793402</v>
       </c>
       <c r="J2">
-        <v>0.1106053989433322</v>
+        <v>0.1157638296793402</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.1650061772661</v>
+        <v>30.38232766666667</v>
       </c>
       <c r="N2">
-        <v>30.1650061772661</v>
+        <v>91.14698300000001</v>
       </c>
       <c r="O2">
-        <v>0.4512767160436088</v>
+        <v>0.4410933377331532</v>
       </c>
       <c r="P2">
-        <v>0.4512767160436088</v>
+        <v>0.4410933377331531</v>
       </c>
       <c r="Q2">
-        <v>19.57983956098164</v>
+        <v>21.82479061886056</v>
       </c>
       <c r="R2">
-        <v>19.57983956098164</v>
+        <v>196.423115569745</v>
       </c>
       <c r="S2">
-        <v>0.04991364121184018</v>
+        <v>0.05106265402203242</v>
       </c>
       <c r="T2">
-        <v>0.04991364121184018</v>
+        <v>0.05106265402203242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.649091183536306</v>
+        <v>0.7183383333333334</v>
       </c>
       <c r="H3">
-        <v>0.649091183536306</v>
+        <v>2.155015</v>
       </c>
       <c r="I3">
-        <v>0.1106053989433322</v>
+        <v>0.1157638296793402</v>
       </c>
       <c r="J3">
-        <v>0.1106053989433322</v>
+        <v>0.1157638296793402</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.5810576617914</v>
+        <v>22.690535</v>
       </c>
       <c r="N3">
-        <v>22.5810576617914</v>
+        <v>68.07160500000001</v>
       </c>
       <c r="O3">
-        <v>0.3378187787040645</v>
+        <v>0.3294232070665772</v>
       </c>
       <c r="P3">
-        <v>0.3378187787040645</v>
+        <v>0.3294232070665772</v>
       </c>
       <c r="Q3">
-        <v>14.65716544319375</v>
+        <v>16.29948109434167</v>
       </c>
       <c r="R3">
-        <v>14.65716544319375</v>
+        <v>146.695329849075</v>
       </c>
       <c r="S3">
-        <v>0.0373645807891123</v>
+        <v>0.03813529203527726</v>
       </c>
       <c r="T3">
-        <v>0.0373645807891123</v>
+        <v>0.03813529203527726</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.649091183536306</v>
+        <v>0.7183383333333334</v>
       </c>
       <c r="H4">
-        <v>0.649091183536306</v>
+        <v>2.155015</v>
       </c>
       <c r="I4">
-        <v>0.1106053989433322</v>
+        <v>0.1157638296793402</v>
       </c>
       <c r="J4">
-        <v>0.1106053989433322</v>
+        <v>0.1157638296793402</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>14.097637829679</v>
+        <v>0.09645133333333333</v>
       </c>
       <c r="N4">
-        <v>14.097637829679</v>
+        <v>0.289354</v>
       </c>
       <c r="O4">
-        <v>0.2109045052523268</v>
+        <v>0.001400289043537939</v>
       </c>
       <c r="P4">
-        <v>0.2109045052523268</v>
+        <v>0.001400289043537939</v>
       </c>
       <c r="Q4">
-        <v>9.150652423932543</v>
+        <v>0.06928469003444446</v>
       </c>
       <c r="R4">
-        <v>9.150652423932543</v>
+        <v>0.62356221031</v>
       </c>
       <c r="S4">
-        <v>0.0233271769423797</v>
+        <v>0.0001621028223379722</v>
       </c>
       <c r="T4">
-        <v>0.0233271769423797</v>
+        <v>0.0001621028223379721</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.08763061618097</v>
+        <v>0.7183383333333334</v>
       </c>
       <c r="H5">
-        <v>4.08763061618097</v>
+        <v>2.155015</v>
       </c>
       <c r="I5">
-        <v>0.696533902328665</v>
+        <v>0.1157638296793402</v>
       </c>
       <c r="J5">
-        <v>0.696533902328665</v>
+        <v>0.1157638296793402</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.1650061772661</v>
+        <v>15.71027466666667</v>
       </c>
       <c r="N5">
-        <v>30.1650061772661</v>
+        <v>47.130824</v>
       </c>
       <c r="O5">
-        <v>0.4512767160436088</v>
+        <v>0.2280831661567317</v>
       </c>
       <c r="P5">
-        <v>0.4512767160436088</v>
+        <v>0.2280831661567317</v>
       </c>
       <c r="Q5">
-        <v>123.303402787481</v>
+        <v>11.28529252026222</v>
       </c>
       <c r="R5">
-        <v>123.303402787481</v>
+        <v>101.56763268236</v>
       </c>
       <c r="S5">
-        <v>0.3143295320559197</v>
+        <v>0.02640378079969254</v>
       </c>
       <c r="T5">
-        <v>0.3143295320559197</v>
+        <v>0.02640378079969253</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.08763061618097</v>
+        <v>4.267456</v>
       </c>
       <c r="H6">
-        <v>4.08763061618097</v>
+        <v>12.802368</v>
       </c>
       <c r="I6">
-        <v>0.696533902328665</v>
+        <v>0.687721964183189</v>
       </c>
       <c r="J6">
-        <v>0.696533902328665</v>
+        <v>0.687721964183189</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.5810576617914</v>
+        <v>30.38232766666667</v>
       </c>
       <c r="N6">
-        <v>22.5810576617914</v>
+        <v>91.14698300000001</v>
       </c>
       <c r="O6">
-        <v>0.3378187787040645</v>
+        <v>0.4410933377331532</v>
       </c>
       <c r="P6">
-        <v>0.3378187787040645</v>
+        <v>0.4410933377331531</v>
       </c>
       <c r="Q6">
-        <v>92.3030226440864</v>
+        <v>129.6552464950827</v>
       </c>
       <c r="R6">
-        <v>92.3030226440864</v>
+        <v>1166.897218455744</v>
       </c>
       <c r="S6">
-        <v>0.2353022322106457</v>
+        <v>0.3033495766139628</v>
       </c>
       <c r="T6">
-        <v>0.2353022322106457</v>
+        <v>0.3033495766139628</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,60 +838,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.08763061618097</v>
+        <v>4.267456</v>
       </c>
       <c r="H7">
-        <v>4.08763061618097</v>
+        <v>12.802368</v>
       </c>
       <c r="I7">
-        <v>0.696533902328665</v>
+        <v>0.687721964183189</v>
       </c>
       <c r="J7">
-        <v>0.696533902328665</v>
+        <v>0.687721964183189</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.097637829679</v>
+        <v>22.690535</v>
       </c>
       <c r="N7">
-        <v>14.097637829679</v>
+        <v>68.07160500000001</v>
       </c>
       <c r="O7">
-        <v>0.2109045052523268</v>
+        <v>0.3294232070665772</v>
       </c>
       <c r="P7">
-        <v>0.2109045052523268</v>
+        <v>0.3294232070665772</v>
       </c>
       <c r="Q7">
-        <v>57.62593600842693</v>
+        <v>96.83085972896001</v>
       </c>
       <c r="R7">
-        <v>57.62593600842693</v>
+        <v>871.4777375606402</v>
       </c>
       <c r="S7">
-        <v>0.1469021380620996</v>
+        <v>0.2265515750113519</v>
       </c>
       <c r="T7">
-        <v>0.1469021380620996</v>
+        <v>0.2265515750113519</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.1318089387222</v>
+        <v>4.267456</v>
       </c>
       <c r="H8">
-        <v>1.1318089387222</v>
+        <v>12.802368</v>
       </c>
       <c r="I8">
-        <v>0.1928606987280028</v>
+        <v>0.687721964183189</v>
       </c>
       <c r="J8">
-        <v>0.1928606987280028</v>
+        <v>0.687721964183189</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>30.1650061772661</v>
+        <v>0.09645133333333333</v>
       </c>
       <c r="N8">
-        <v>30.1650061772661</v>
+        <v>0.289354</v>
       </c>
       <c r="O8">
-        <v>0.4512767160436088</v>
+        <v>0.001400289043537939</v>
       </c>
       <c r="P8">
-        <v>0.4512767160436088</v>
+        <v>0.001400289043537939</v>
       </c>
       <c r="Q8">
-        <v>34.14102362804015</v>
+        <v>0.4116018211413334</v>
       </c>
       <c r="R8">
-        <v>34.14102362804015</v>
+        <v>3.704416390272</v>
       </c>
       <c r="S8">
-        <v>0.08703354277584893</v>
+        <v>0.0009630095314461106</v>
       </c>
       <c r="T8">
-        <v>0.08703354277584893</v>
+        <v>0.0009630095314461104</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.1318089387222</v>
+        <v>4.267456</v>
       </c>
       <c r="H9">
-        <v>1.1318089387222</v>
+        <v>12.802368</v>
       </c>
       <c r="I9">
-        <v>0.1928606987280028</v>
+        <v>0.687721964183189</v>
       </c>
       <c r="J9">
-        <v>0.1928606987280028</v>
+        <v>0.687721964183189</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.5810576617914</v>
+        <v>15.71027466666667</v>
       </c>
       <c r="N9">
-        <v>22.5810576617914</v>
+        <v>47.130824</v>
       </c>
       <c r="O9">
-        <v>0.3378187787040645</v>
+        <v>0.2280831661567317</v>
       </c>
       <c r="P9">
-        <v>0.3378187787040645</v>
+        <v>0.2280831661567317</v>
       </c>
       <c r="Q9">
-        <v>25.55744290741693</v>
+        <v>67.04290588791466</v>
       </c>
       <c r="R9">
-        <v>25.55744290741693</v>
+        <v>603.3861529912321</v>
       </c>
       <c r="S9">
-        <v>0.06515196570430644</v>
+        <v>0.1568578030264282</v>
       </c>
       <c r="T9">
-        <v>0.06515196570430644</v>
+        <v>0.1568578030264282</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.219411</v>
+      </c>
+      <c r="H10">
+        <v>3.658233</v>
+      </c>
+      <c r="I10">
+        <v>0.1965142061374708</v>
+      </c>
+      <c r="J10">
+        <v>0.1965142061374708</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>30.38232766666667</v>
+      </c>
+      <c r="N10">
+        <v>91.14698300000001</v>
+      </c>
+      <c r="O10">
+        <v>0.4410933377331532</v>
+      </c>
+      <c r="P10">
+        <v>0.4410933377331531</v>
+      </c>
+      <c r="Q10">
+        <v>37.04854456233767</v>
+      </c>
+      <c r="R10">
+        <v>333.436901061039</v>
+      </c>
+      <c r="S10">
+        <v>0.0866811070971579</v>
+      </c>
+      <c r="T10">
+        <v>0.08668110709715787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.1318089387222</v>
-      </c>
-      <c r="H10">
-        <v>1.1318089387222</v>
-      </c>
-      <c r="I10">
-        <v>0.1928606987280028</v>
-      </c>
-      <c r="J10">
-        <v>0.1928606987280028</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>14.097637829679</v>
-      </c>
-      <c r="N10">
-        <v>14.097637829679</v>
-      </c>
-      <c r="O10">
-        <v>0.2109045052523268</v>
-      </c>
-      <c r="P10">
-        <v>0.2109045052523268</v>
-      </c>
-      <c r="Q10">
-        <v>15.95583251049893</v>
-      </c>
-      <c r="R10">
-        <v>15.95583251049893</v>
-      </c>
-      <c r="S10">
-        <v>0.04067519024784749</v>
-      </c>
-      <c r="T10">
-        <v>0.04067519024784749</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.219411</v>
+      </c>
+      <c r="H11">
+        <v>3.658233</v>
+      </c>
+      <c r="I11">
+        <v>0.1965142061374708</v>
+      </c>
+      <c r="J11">
+        <v>0.1965142061374708</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>22.690535</v>
+      </c>
+      <c r="N11">
+        <v>68.07160500000001</v>
+      </c>
+      <c r="O11">
+        <v>0.3294232070665772</v>
+      </c>
+      <c r="P11">
+        <v>0.3294232070665772</v>
+      </c>
+      <c r="Q11">
+        <v>27.669087974885</v>
+      </c>
+      <c r="R11">
+        <v>249.021791773965</v>
+      </c>
+      <c r="S11">
+        <v>0.06473634001994809</v>
+      </c>
+      <c r="T11">
+        <v>0.06473634001994807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.219411</v>
+      </c>
+      <c r="H12">
+        <v>3.658233</v>
+      </c>
+      <c r="I12">
+        <v>0.1965142061374708</v>
+      </c>
+      <c r="J12">
+        <v>0.1965142061374708</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.09645133333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.289354</v>
+      </c>
+      <c r="O12">
+        <v>0.001400289043537939</v>
+      </c>
+      <c r="P12">
+        <v>0.001400289043537939</v>
+      </c>
+      <c r="Q12">
+        <v>0.1176138168313333</v>
+      </c>
+      <c r="R12">
+        <v>1.058524351482</v>
+      </c>
+      <c r="S12">
+        <v>0.0002751766897538564</v>
+      </c>
+      <c r="T12">
+        <v>0.0002751766897538563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.219411</v>
+      </c>
+      <c r="H13">
+        <v>3.658233</v>
+      </c>
+      <c r="I13">
+        <v>0.1965142061374708</v>
+      </c>
+      <c r="J13">
+        <v>0.1965142061374708</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>15.71027466666667</v>
+      </c>
+      <c r="N13">
+        <v>47.130824</v>
+      </c>
+      <c r="O13">
+        <v>0.2280831661567317</v>
+      </c>
+      <c r="P13">
+        <v>0.2280831661567317</v>
+      </c>
+      <c r="Q13">
+        <v>19.15728174155467</v>
+      </c>
+      <c r="R13">
+        <v>172.415535673992</v>
+      </c>
+      <c r="S13">
+        <v>0.04482158233061097</v>
+      </c>
+      <c r="T13">
+        <v>0.04482158233061097</v>
       </c>
     </row>
   </sheetData>
